--- a/public/file_dataset/training firstmedia 2020-12-01.xlsx
+++ b/public/file_dataset/training firstmedia 2020-12-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="191">
   <si>
     <t>id_tweet</t>
   </si>
@@ -34,22 +34,22 @@
     <t>datatype</t>
   </si>
   <si>
-    <t>omayselap</t>
+    <t>mlqtrii</t>
   </si>
   <si>
     <t>FirstMediaCares</t>
   </si>
   <si>
-    <t>mlqtrii</t>
+    <t>nicocacolaa_</t>
   </si>
   <si>
     <t>dropsofsun_</t>
   </si>
   <si>
-    <t>alphavityazi</t>
-  </si>
-  <si>
-    <t>halusinasa</t>
+    <t>brendyyi</t>
+  </si>
+  <si>
+    <t>naufalrajendra</t>
   </si>
   <si>
     <t>fuckinghard6969</t>
@@ -64,6 +64,9 @@
     <t>Tomo7795856590</t>
   </si>
   <si>
+    <t>lythix_</t>
+  </si>
+  <si>
     <t>rizmie24</t>
   </si>
   <si>
@@ -82,13 +85,16 @@
     <t>sekarstruggle</t>
   </si>
   <si>
+    <t>deborahtunjung</t>
+  </si>
+  <si>
     <t>boreg8401</t>
   </si>
   <si>
-    <t>deborahtunjung</t>
-  </si>
-  <si>
-    <t>notapetite</t>
+    <t>saferaaa</t>
+  </si>
+  <si>
+    <t>blckrd25</t>
   </si>
   <si>
     <t>lajimolalaaaaa</t>
@@ -97,71 +103,109 @@
     <t>MarioKawaliong2</t>
   </si>
   <si>
-    <t>@FirstMediaCares min, wifi error padahal besok pagi anak2 mau ujian akhir semester PJJ. Saya sdh restart modem lwt https://t.co/g5k25aqHXV gak berhasil. Kabel saya cabut trs colok lg gak berhasil jg... tlg dibantu min. Thx</t>
-  </si>
-  <si>
-    <t>@chikalim_ Hi First People, mohon maaf atas ketidaknyamanannya perihal gangguan kualitas signal jaringan di area rmh Ibu saat ini dan msh dalam proses perbaikan. Update infonya ada di https://t.co/h46Z2K7k7Z ya. Tks ^tst</t>
-  </si>
-  <si>
-    <t>@ash14326 Hi First People, mohon maaf atas ketidaknyamanannya. Saat ini area  SUNTER sdg mengalami gangguan jaringan. Estimasi perbaikan 2-Dec-2020 / 06:07. Informasi status area tsb silahkan dicek di https://t.co/IQIwB9XHrI ya. Tks. ^myo</t>
-  </si>
-  <si>
-    <t>@fendarto          Selamat Malam First People, Mhn maaf atas ketidaknyamanannya. Untuk saat ini sedang ada gangguan jaringan di area rumah bpk/ibu, estimasi perbaikan 02-Dec-2020 / 22:24. Untuk update perbaikan bisa kunjungi di https://t.co/h46Z2K7k7Z Tks. ^han</t>
-  </si>
-  <si>
-    <t>firstmedia ngga jelas banget dahlah balik lagi sama indihome😭</t>
+    <t>firstmedia ngga jelas banget mending balik lagi sama indihome😭</t>
+  </si>
+  <si>
+    <t>@Ferry14939796 Hi First People, mohon maaf atas ketidaknyamanannya tsb. Saat ini tim msh pengupayakan perbaikan jaringan secepatnya. Mhn menunggu perbaikannya kembali. Info status area silahkan cek di https://t.co/h46Z2K7k7Z. Terimakasih ^ang</t>
+  </si>
+  <si>
+    <t>@iensanity Selamat malam First People, mhn maaf atas ketidaknyamanannya. Saat ini ada gangguan kualitas signal jaringan yg menyebabkan internet on-off dan sdg diupayakan perbaikan secepatnya. Info update status jaringan dapat dicek di https://t.co/h46Z2K7k7Z. Terimakasih ^ang</t>
+  </si>
+  <si>
+    <t>kenapa lagi ni firstmedia aduh</t>
   </si>
   <si>
     <t>email isinya gangguan firstmedia doang</t>
   </si>
   <si>
-    <t>@FirstMediaCares setelah dicek, lalu apa? ini udah sekitar 2-3 hari gangguan di website cek firstmedia, tp ga ada perubahan. gausah perubahan, estimasi perbaikan aja gak jelas s/d kapan. belum lagi rto rto yang terjadi sudah hampir 2 minggu lebih.</t>
-  </si>
-  <si>
-    <t>@edithzafirah   Selamat malam First People. Mhn maaf atas ketidaknyamanannya. Kami cek ada biaya keterlambatan Rp.30.000. Untuk tambahan informasi Bpk/ibu bisa cek tagihan dan rincian tagihan di aplikasi my firstmedia App. Tks ^han</t>
-  </si>
-  <si>
-    <t>niat hati mau netflix eh firstmedia nya mati😔</t>
-  </si>
-  <si>
-    <t>@OgawaRen Selamat malam First People, mohon maaf atas ketidaknyamanannya. Saat ini area Bpk/Ibu sdg mengalami gangguan jaringan. Namun akan kami upayakan secepatnya. Informasi mengenai status area tsb silahkan dicek di https://t.co/IQIwB9XHrI. Terimakasih ^ang</t>
-  </si>
-  <si>
-    <t>@febriani_p @FirstMediaCares Emang aneh2 aja first media skrg.. boikot aja firstmedia</t>
+    <t>@pemfitraan Hi first people,mhn maaf atas ketidaknymanan.Untuk estimasi kurang lebih 3x24 jam dan akan kami upayakan agar perbaikan segera https://t.co/jO92YhZ7H4 detailnya di https://t.co/h46Z2K7k7Z.Tks ^Fjr</t>
+  </si>
+  <si>
+    <t>@FirstMediaCares Cape bro komplain, liat akun saya ini tweet cuman komplain ke firstmedia doang paling sering,</t>
+  </si>
+  <si>
+    <t>@khalishabil Selamat Malam First People, mhn maaf Area Bpk/Ibu msh terjadi gangguan kualitas signal dan msh progres perbaikan yg masih kami upayakan sesegera mungkin normal kembali ya. Informasi terakhir mengenai problem ini bisa cek di situs https://t.co/h46Z2K7k7Z. Tks ^Ibn</t>
+  </si>
+  <si>
+    <t>@brendyyi Selamat Malam First People, mohon maaf atas ketidaknyamanannya ya atas gangguan jaringan on-off saat ini mohon kesediaannya menunggu progres team terkait ya utk info lebih lanjut cek https://t.co/JMlireD1it terima kasih. ^rml</t>
+  </si>
+  <si>
+    <t>@mfadelj dan sedang diupayakan perbaikan sesegera mungkin. Untuk informasi terakhir mengenai problem ini bisa mengaksesnya di situs https://t.co/h46Z2K7k7Z. Terima kasih(2/2) ^Yur</t>
+  </si>
+  <si>
+    <t>@syifaDDA Selamat Malam First People, baik Bu kami akan upayakan utk perbaikannya mohon kesediaannya menunggu progres team terkait utk info selanjutnya bisa cek https://t.co/JMlireD1it terima kasih. ^rml</t>
+  </si>
+  <si>
+    <t>@Ferry14939796 Selamat Malam First People, Mhn maaf atas ketidaknyamanannya, kami cek utk diarea terpantau gangguan kualitas jaringan, dan msh dalam perbaikan. Mhn menunggu progress perbaikannya ya. Untuk informasi mengenai jaringan dapat di https://t.co/h46Z2K7k7Z. Tks ^myo</t>
+  </si>
+  <si>
+    <t>@good_logic Hi First People, mohon maaf sekali atas ketidaknyamanan yang dialami. Saat ini tim msh mengupayakan perbaikan jaringan secepatnya agar dapat nomal kembali. Mhn menunggu perbaikannya kembali ya. Info status area silahkan cek di https://t.co/h46Z2K7k7Z. Tks. ^ang</t>
+  </si>
+  <si>
+    <t>@kacung_kakel 
+Hi FIRST people. Mohon ditunggu prosesnnya , diusahakan perbaikan seoptimal mungkin untuk perbaikan agar sesegera mungkin areanya normal kembali . utk informasi terakhir mengenai problem ini silakan akses di https://t.co/h46Z2K7k7Z. Tks. ^Fuj</t>
+  </si>
+  <si>
+    <t>@shesheaaaa Selamat Malam First People, mohon maaf atas ketidaknyamanannya. Kami belum bisa menyampaikannya sekarang karena masih dalam proses penelusuran dan perbaikan oleh team jaringan kami. Detailnya bisa pantau di https://t.co/h46Z2K7k7Z. Tks ^myo</t>
+  </si>
+  <si>
+    <t>@6MRDRgkzH4lcdyz Hi First People, untuk alamat tersebut kami bantu pengecekan mohon maaf belum tercover layanan kami, sehingga belum dapat di lakukan pemasangan firstmedia. Terima kasih ^Yur</t>
+  </si>
+  <si>
+    <t>@alphavityazi Hi first people,mhn maaf atas ketidaknymanan.Saat ini tim jaringan kami masih membutuhkan waktu untuk perbaikannya agar jaringan bisa normal kembali.Mengenai status gangguannya kami sarankan mengecek di https://t.co/h46Z2K7k7Z.Tks ^Fjr</t>
+  </si>
+  <si>
+    <t>@good_logic Selamat Malam First People, mohon maaf atas ketidaknyamanannya. Saat ini area  SUNTER sdg mengalami gangguan jaringan. Estimasi perbaikan 2-Dec-2020 / 06:07. Informasi status area tsb silahkan dicek di https://t.co/IQIwB9XHrI ya. Tks. ^myo</t>
+  </si>
+  <si>
+    <t>@anggodek firstmedia juga nyusahin ni njing</t>
+  </si>
+  <si>
+    <t>@david_ang77 Hi First People, mohon maaf atas ketidaknyamanannya. Kami infokan perbaikan estimasi 1x24 jam dan saat ini masih terus dilakukan perbaikan oleh tim jaringan kami. Untuk status gangguannya kami sarankan mengecek di https://t.co/h46Z2K7k7Z. Tks ^Yur</t>
+  </si>
+  <si>
+    <t>@Ucupslebew Selamat Malam First People, mohon maaf kami msh melakukan perbaikan yang diperlukan agar problem tersebut dapat segera kembali normal. Estimasi waktu perbaikan 02-Dec-2020 / 20:00, Untuk update perbaikannya bisa cek di https://t.co/h46Z2K7k7Z ya. Tks ^Ibn</t>
+  </si>
+  <si>
+    <t>@pemfitraan @FirstMediaCares Nyesel kan pake firstmedia sama saya juga</t>
   </si>
   <si>
     <t>@sumadiwiria 
 Selamat malam FIRST people. Mohon maaf . Saat ini pada areanya sedang terjadi gangguan karena Jaringan kami terputus. Estimasi perbaikan hingga  02-Dec-2020 / 08:03.  Untuk cek status perbaikan dii https://t.co/h46Z2K7k7Z . Tks ^Fuj</t>
   </si>
   <si>
+    <t>@helmykdm45 Selamat Malam First People, baik Pak, mohon maaf atas ketidaknyamanan yg di alami. Kami akan berusaha lebih baik lagi untuk ke depannya ya. Terima kasih telah berlangganan Firstmedia. ^Yur</t>
+  </si>
+  <si>
     <t>@fedirtoch Hi FIRST people.  Mohon maaf mengenai hal Tersebut FIRSTmedia hanya sebagai pihak yang menyediakan interetnnya saja, untuk kendala pada Netflix silakan konfirmasi kembali pada pihak terkait ya. Tks ^Fuj</t>
   </si>
   <si>
     <t>@david_ang77 Hi First People, mohon maaf atas kendala yg dialami. kami cek jaringan internet terindikasi gangguan signal quality area yang menyebabkan koneksi internet tidak stabil. Mengenai status gangguannya kami sarankan mengecek di https://t.co/h46Z2K7k7Z. ^RQ</t>
   </si>
   <si>
-    <t>@febriani_p Hi First People, baik, mohon maaf atas ketidaknyamanan yang dialami dan terima kasih telah berlangganan firstmedia. ^Ibn</t>
-  </si>
-  <si>
-    <t>@Muhamma73807660 Selamat Malam First People, Kami infokan IP Firstmedia bersifat unlimited jadi bs diakses di berbagai devices ya. Tks ^myo</t>
-  </si>
-  <si>
     <t>@ndordor1 Selamat Malam First People, Mhn maaf atas ketidaknyamanannya, kami cek utk diarea terpantau gangguan kualitas jaringan, dan msh dalam perbaikan. Mhn menunggu progress perbaikannya ya. Untuk informasi mengenai jaringan dapat di https://t.co/h46Z2K7k7Z. Tks ^myo</t>
   </si>
   <si>
+    <t>@su3sno Selamat Malam First People, mohon maaf saat ini gangguan area dan masih dlm upaya perbaikan gangguan jaringan area. Waktu perbaikan 02-Dec-2020 / 01:53 mohon kesediaannya menunggu utk info selanjutnya bisa cek https://t.co/JMlireD1it terima kasih ^rml</t>
+  </si>
+  <si>
     <t>@dedisupriadi Selamat Malam First Poeple. Mohon maaf atas ketidaknyamanannya. Saat ini sdg ada gangguan kualitas signal (on/off) dan msh dlm perbaikan oleh tim terkait kami. Untuk updatenya bisa akses https://t.co/h46Z2K7k7Z. Tks ^RZA</t>
   </si>
   <si>
+    <t>@evilmorty07 
+Hi FIRST people. Mohon ditunggu prosesnnya , diusahakan perbaikan seoptimal mungkin untuk perbaikan agar sesegera mungkin areanya normal kembali . utk informasi terakhir mengenai problem ini silakan akses di https://t.co/h46Z2K7k7Z. Tks. ^Fuj</t>
+  </si>
+  <si>
     <t>firstmedia pls jangan lemot, gue gapunya kuota 💔</t>
   </si>
   <si>
     <t>@FirstMediaCares @FirstMediaCares @FirstMediaCares drtd internet saya gabisa padahal lampu di routernya nyala semua dan saya cek di cek.firstmedia juga service statusnya online gimanasih?? Tolong segera ditangani dong</t>
   </si>
   <si>
-    <t>@Alula62159525 Selamat Malam First People, mohon maaf atas ketidaknyamanannya. Saat ini area  Swadarma sdg mengalami gangguan jaringan. Estimasi perbaikan 02-Dec-2020 / 01:26. Informasi status area tsb silahkan dicek di https://t.co/IQIwB9XHrI ya. Tks. ^myo</t>
-  </si>
-  <si>
     <t>@FirstMediaCares mohon infonya dikarenakan akan pindah rumah bagaimana caranya berhenti berlangganan FirstMedia?</t>
+  </si>
+  <si>
+    <t>apa si sialan firstmedia hidup mati hidup mati ngerjain quiz aj ribet terus lagi main genshin gk lancar 😤😤</t>
   </si>
   <si>
     <t>@rosajaya 
@@ -171,28 +215,25 @@
     <t>@b4n1e Hi FIRST people. Terima kasih kembali sudah berlangganan FIRSTmedia. Silakan digunakan aksesnya kembali. ^Fuj</t>
   </si>
   <si>
+    <t>@iesheanandr Selamat Malam First Poeple. Mohon maaf atas ketidaknyamanannya. Saat ini sdg ada gangguan jaringan di area Bapak/Ibu dan msh dlm proses perbaikan oleh tim terkait kami. Untuk updatenya bisa akses https://t.co/h46Z2K7k7Z. Tks ^RZA</t>
+  </si>
+  <si>
     <t>@BhimoMahanani Hi First People. Untuk permintaan penyesuaian tagihan akan kami ajukan ke tim terkait kami ya. Cek tagihan dan jaringan bisa juga melalui website kami di https://t.co/h46Z2K7k7Z ya. Tks ^Ibn</t>
   </si>
   <si>
     <t>@FirstMediaCares min saya mau tanya kalo mau daftar ke aplikasi my firstmedia knp gak bisa2 ya? Tidak sesuai terus email dan no hp nya ini id firstmedia nya min 11706448</t>
   </si>
   <si>
-    <t>@j_rhama_c Selamat Malam First People, mohon maaf atas ketidaknyamanannya. Saat ini area  KELAPA GADING sdg mengalami gangguan jaringan. Estimasi perbaikan 2-Dec-2020 / 04:49. Informasi status area tsb silahkan dicek di https://t.co/IQIwB9XHrI ya. Tks. ^myo</t>
-  </si>
-  <si>
-    <t>Ini firstmedia kenapasii😠</t>
-  </si>
-  <si>
-    <t>@Aldry_F Selamat malam First People. Mhn maaf atas ketidaknyamanannya. Kami cek area saat ini normal, mhn restart kabel pwr modem ya. Jika masih kendala mhn dicoba utk bypass dr modem lgsg dgn kabel LAN ya. Untuk cek &amp;amp; refresh jaringan bs di https://t.co/h46Z2K7k7Z ya. Tks. ^Fjr</t>
-  </si>
-  <si>
-    <t>@sen9922 Selamat malam FIRST people. Mohon maaf atas ketidaknyamanan yang dialami. Saat ini areanya masih dalam prses perbaikan, yang menyebabkan kualitas jaringan areannya  menurun.  untuk cek status perbaikan bisa cek di https://t.co/h46Z2K7k7Z . Tks ^Fuj</t>
-  </si>
-  <si>
-    <t>@heyixn Hi First People. Mhn maaf atas ktdknyamanannya, Info pd aplikasi https://t.co/h46Z2K7k7Z adalah info singkat status gangguan, mengenai info lbh detail kami blm bisa mnyampaiknnya skrg krn msh dlm proses penelusuran dan prbaikn oleh tim jaringan (1/2) ^mrs</t>
-  </si>
-  <si>
-    <t>@rizkybayumilano   Selamat Siang First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan signal quality. Detail jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z  dan MYFirstMedia App ^em</t>
+    <t>Ini firstmedia kenapa si😠</t>
+  </si>
+  <si>
+    <t>@fannysuwito Selamat Malam First People. Mohon maaf saat ini sdg terjadi prblm jaringan dan hal ini sdh dalam proses perbaikan dari team jaringan kami. Estimasi waktu perbaikan 02-Dec-2020 / 04:11. Detailnya bisa pantau di https://t.co/h46Z2K7k7Z. Tks ^Ibn</t>
+  </si>
+  <si>
+    <t>@Ferry14939796 Selamat malam First Poeple. Mohon maaf atas ketidaknyamanannya. Saat ini sdg ada gangguan kualitas signal (on/off) dan msh dlm perbaikan oleh tim terkait kami. Untuk updatenya bisa akses https://t.co/h46Z2K7k7Z. Tks ^Fjr</t>
+  </si>
+  <si>
+    <t>@cebantigaa Selamat Malam First People, Mhn maaf atas ketidaknyamanannya, kami cek utk diarea terpantau gangguan kualitas jaringan, dan msh dalam perbaikan. Mhn menunggu progress perbaikannya ya. Untuk informasi mengenai jaringan dapat di https://t.co/h46Z2K7k7Z. Tks ^myo</t>
   </si>
   <si>
     <t>@sycaamoree Selamat Siang First People, mohon maaf atas ketidaknyamanannya ya atas gangguan jaringan saat ini mohon kesediaannya menunggu progres team terkait ya utk info lebih lanjut cek https://t.co/JMlireD1it terima kasih. ^rml</t>
@@ -207,10 +248,7 @@
     <t>@FirstMediaCares min tolong banget nih responsnya sampai kapan perbaikan jaringan akan selesai? saya capek bgt sm firstmedia ini internet on off trs. sekalinya off pasti hrs tunggu berjam2 bahkan smp esok hari buat nyala.</t>
   </si>
   <si>
-    <t>@heyixn Selamat siang First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan signal quality. Mohon kesediannya menunggu hingga 3 hari kedepan utk perbaikannya. Detailnya bisa lihat di https://t.co/h46Z2K7k7Z. Tks ^Gio</t>
-  </si>
-  <si>
-    <t>firstmedia bapuk. Smartfren jg bapuk. Udh nanya ke ofc akuncare nya lgsg juga jawaban nya muter” ! kerjaan gue apa kabar woy !!!</t>
+    <t>firstmedia jelek. Smartfren jg enggak guna. Udh nanya ke ofc akuncare nya lgsg juga jawaban nya muter” ! kerjaan gue apa kabar woy !!!</t>
   </si>
   <si>
     <t>@reyhanhuditama Hi First People. Mhn maaf atas kendalanya tsb. Kami berupaya yg terbaik agar jaringan bisa kembali normal secepatnya. Mhn menunggu perbaikan jaringannya kembali ya. Info status jaringan cek di https://t.co/h46Z2K7k7Z.Tks ^mel</t>
@@ -226,6 +264,15 @@
   </si>
   <si>
     <t>@elmingyuuu Hi First People, mohon maaf atas ketidaknyamanannya. Kami masih membutuhkan waktu tambahan utk perbaikan gangguan area ini ya dan sdg diupayakan perbaikan sesegera mungkin. Informasi terakhir bisa mengaksesnya di situs https://t.co/h46Z2K7k7Z. Terima kasih ^nlv</t>
+  </si>
+  <si>
+    <t>@calondudawakaka Selamat Siang First Poeple. Mohon maaf atas ketidaknyamanannya. Saat ini sdg ada gangguan jaringan di area Bapak/Ibu dan msh dlm proses perbaikan oleh tim terkait kami. Untuk updatenya bisa akses https://t.co/h46Z2K7k7Z. Tks ^RZA</t>
+  </si>
+  <si>
+    <t>@Aoyama17Kei Hi First People. Mhn maaf atas ktdknyamanannya. Memaksimalkan perbaikn gangguan layanan tsb. Untuk informasi terakhir mengenai masalah ini dapat mengaksesnya melalui https://t.co/h46Z2K7k7Z. Tks ^mrs</t>
+  </si>
+  <si>
+    <t>@habepeh Selamat siang First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan signal quality. Mohon kesediannya menunggu hingga 3 hari kedepan utk perbaikannya. Detailnya bisa lihat di https://t.co/h46Z2K7k7Z. Tks ^Gio</t>
   </si>
   <si>
     <t>@giphuuu Selamat Siang FIrst People. Terima kasih atas informasinya. Pembayaran akan update di sistem kami estimasi 3 hari kerja. Saat ini layanan tlh aktif. Info detail paket cek di My Firstmedia apps, info tagihan dan status pembayaran cek di https://t.co/h46Z2K7k7Z. Tks ^mel</t>
@@ -243,14 +290,7 @@
 Utk detailnya bisa pantau di https://t.co/h46Z2K7k7Z ya .Tks ^6IB</t>
   </si>
   <si>
-    <t>@rahmat_sitinjak Slmt Siang First People. Mhn maaf atas ktdknyamanannya. Sdg terjadi gangguan layanan area ASEM BARIS, adapun perkiraan estimasi perbaikan sampai dgn 01-Dec-2020 / 21:18. Utk info terakhir mengenai mslh ini dpt mengaksesnya via https://t.co/h46Z2K7k7Z. Tks ^mrs</t>
-  </si>
-  <si>
-    <t>@soreschach Selamat Siang First Poeple. Mohon maaf atas ketidaknyamanannya. Saat ini sdg ada gangguan jaringan di area Bapak/Ibu dan msh dlm proses perbaikan oleh tim terkait kami. Untuk updatenya bisa akses https://t.co/h46Z2K7k7Z. Tks ^RZA</t>
-  </si>
-  <si>
-    <t>@FirstMediaCares Dibilang situs ga update - suruh cek situs - diingatkan kalau situs kudet (kurang update) - tetap dijawab cek status ke situs https://t.co/3cdusO2R48
-Terus aja obrolannya termuter sampe kiamat...</t>
+    <t>@soreschach Adapun perkiraan perbaikan jaringan sampai dengan tgl 01-Dec-2020 / 22:51. Untuk informasi terakhir mengenai problem ini bisa mengaksesnya di situs https://t.co/h46Z2K7k7Z. Terima kasih. (2/2) ^5HY</t>
   </si>
   <si>
     <t>@youricedlatte Slmt Siang First People. Mhn maaf atas ktdknyamanannya. Sdg terjadi gangguan layanan area PERUM HARAPAN BARU REGENCY, adapun perkiraan estimasi perbaikan sampai dgn 01-Dec-2020 / 22:28. Utk info terakhir mengenai mslh ini dpt mengaksesnya via https://t.co/h46Z2K7k7Z. Tks ^mrs</t>
@@ -259,63 +299,14 @@
     <t>@monicaiueo  Selamat Siang First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan dan sdg dalam perbaikan . Info jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z atau myFirstMedia App. Tks ^em</t>
   </si>
   <si>
-    <t>@boreg8401 Hi First People. Mhn maaf atas kendalanya dan terima kasih inputannya untuk perbaikan layanan kami. Untuk update info status jaringan kami sarankan untuk cek di https://t.co/h46Z2K7k7Z ya. Tks ^mel</t>
-  </si>
-  <si>
-    <t>@satyasuryawan Hi First People. Mhn maaf atas kendalanya. Untuk penyesuaian tagihannya sdh diajukan dan akan diperhitungkan setelah proses perbaikan selesai dilakukan ya. Info tagihan dan status jaringan cek di https://t.co/h46Z2K7k7Z. Tks ^mel</t>
-  </si>
-  <si>
-    <t>@arief_faei    Selamat  siang  First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi gangguan jaringan. estimasi waktu 01-Dec-2020 / 21:20 kami sedang upayakan segera normal,  Detailnya bisa pantau di https://t.co/h46Z2K7k7Z. Tks ^Sth</t>
-  </si>
-  <si>
-    <t>@Isma12777694  Selamat Siang First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan signal quality. Detail jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z  dan MYFirstMedia App ^em</t>
-  </si>
-  <si>
-    <t>@lesmanagus Selamat siang First People. Mhn maaf atas kendalanya tsb. Kami berupaya yg terbaik agar jaringan bisa kembali normal secepatnya. Mhn menunggu perbaikan jaringannya kembali ya. Info status jaringan cek di https://t.co/h46Z2K7k7Z.Tks ^mel</t>
-  </si>
-  <si>
-    <t>@mhrzk Selamat Siang First People, mohon maaf atas ketidaknyamanannya. Kami informasikan untuk saat ini area sedang mengalami gangguan, estimasi waktu perbaikan diperkirakan 01-Dec-2020 / 19:41. Info status jaringan dpt akses di https://t.co/h46Z2K7k7Z. Terima kasih ^nlv</t>
-  </si>
-  <si>
-    <t>@FerryPrasojo  Selamat Siang  First People, untuk saat ini mohon maaf tagihan Bapak/Ibu sudah tidak dikenakan discount ya sehingga pembayaran dengan nominal normal . Info jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z atau myFirstMedia App. Tks ^em</t>
-  </si>
-  <si>
-    <t>@farelez . Selamat Siang First People. Mohon maaf atas ketidaknyamanannya.  Team saat ini masih sedang mengupayakan perbaikan secepatnya. Info mengenai status area tsb silahkan
- dicek di https://t.co/h46Z2K7k7Z. Tks ^6IB</t>
-  </si>
-  <si>
-    <t>@good_logic Slmt Siang First People. Mhn maaf atas ktdknyamanannya. Sdg terjadi gangguan layanan area Sunter, adapun perkiraan estimasi perbaikan sampai dgn 01-Dec-2020 / 22:53. Utk info terakhir mengenai mslh ini dpt mengaksesnya via https://t.co/h46Z2K7k7Z. Tks ^mrs</t>
-  </si>
-  <si>
-    <t>@yvonnegrist Hi First People, mohon maaf atas ketidaknyamanannya. Kami informasikan untuk saat ini area sedang mengalami gangguan, estimasi waktu perbaikan diperkirakan 01-Dec-2020 / 20:22. Info status jaringan bs akses di https://t.co/h46Z2K7k7Z. Terima kasih ^nlv</t>
-  </si>
-  <si>
-    <t>@vinxkvn Mohon kesediaan Bpk/Ibu menunggu perbaikan yg sdg kami lakukan. Utk informasi terakhir mengenai gangguan ini bisa cek di situs kami di https://t.co/h46Z2K7k7Z. Tks. (2/2) ^ita</t>
-  </si>
-  <si>
-    <t>@lesmanagus Selamat Pagi First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan dan sdg dalam perbaikan.  Estimasi waktu perbaikan 02-Dec-2020 / 10:46. Info jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z atau myFirstMedia App. Tks ^em</t>
-  </si>
-  <si>
-    <t>@bellatir__ Hi First People, mhn maaf atas ketidaknyamanannya. Kami akan upayakan perbaikan secepatnya ya mengenai gangguan area ini. Mhn ditunggu perbaikannya. Untuk informasi terakhir mengenai problem ini bisa mengaksesnya di situs https://t.co/h46Z2K7k7Z. Terima kasih ^nlv</t>
-  </si>
-  <si>
     <t>@fitrianisn Yaa kan sebel banget mati nyala mulu, itu lu protes nya telpon firstmedia nya pit??</t>
   </si>
   <si>
-    <t>@AlvinLieRusli3  Hi First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan dan sdg dalam perbaikan.  Estimasi waktu perbaikan 01-Dec-2020 / 22:53. Info jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z atau myFirstMedia App. Tks ^em</t>
-  </si>
-  <si>
-    <t>@boreg8401  Selamat Pagi First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan dan sdg dalam perbaikan.  Estimasi waktu perbaikan01-Dec-2020 / 22:53 . Info jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z atau myFirstMedia App. Tks ^em</t>
-  </si>
-  <si>
-    <t>@Dexterjoey1 . Selamat Pagi First People. Mhn maaf atas
- ketidaknyamanannya. Saat ini area bapak/ibu 
-sedang mengalami Pemeliharaan jaringan dan msh 
-dalam proses perbaikan. Info mengenai status area 
-tsb silahkan dicek di  https://t.co/h46Z2K7k7Z .Tks ^6IB</t>
-  </si>
-  <si>
-    <t>@janganordinary Slmt Pagi First People. Mhn maaf atas ktdknyamanannya. Area saat ini normal. Mhn restart kabel pwr modem, jika masih kendala mhn info indikator pada modem ya. Untuk cek &amp;amp; refresh jaringan pd aplikasi https://t.co/h46Z2K7k7Z. Tks ^mrs</t>
+    <t>@FirstMediaCares Lama-lama curiga layanan https://t.co/3cdusO2R48 itu isinya formalitas doang. Duluan gw cek kesana (dan ybs mengaku nya "ONLINE") dan setelah 15 menit baru deh FM kaleng-kaleng ngaku kalau lagi gangguan. 
+Sampah</t>
+  </si>
+  <si>
+    <t>@FirstMediaCares Saya gatau ini udah keluhan keberapa kalinya. Internet dirumah saya sering sekali putus nyambung, saya minta datangkan teknisi tapi dari firstmedia cuma bilang maaf. Adik adik saya jadinya tidak bisa mengikuti pelajaran karena jeleknya jaringan dari firstmedia</t>
   </si>
   <si>
     <t>@lunargirl_ . Selamat Pagi First People. Mohon maaf atas  
@@ -340,10 +331,22 @@
 tsb silahkan dicek di  https://t.co/h46Z2K7k7Z .Tks ^6IB</t>
   </si>
   <si>
-    <t>@kabigon89    Selamat  pagi  First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi gangguan jaringan. estimasi waktu 01-Dec-2020 / 22:52 kami sedang upayakan segera normal,  Detailnya bisa pantau di https://t.co/h46Z2K7k7Z. Tks ^Sth</t>
-  </si>
-  <si>
-    <t>firstmedia masi pagi udh gajelas☺️🙏🏻</t>
+    <t>@FirstMediaCares siang, untuk nopel 11127925 di cek firstmedia keterangannya online tapi kok di modem indikator onlinenya mati ya. Bisa dibantu cek? Terima kasih</t>
+  </si>
+  <si>
+    <t>Sialan dah firstmedia lagi kelas wifi mati nyala mulu</t>
+  </si>
+  <si>
+    <t>@syubjugated  Selamat Pagi First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan dan sdg dalam perbaikan.  Estimasi waktu perbaikan 02-Dec-2020 / 09:24. Info jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z atau myFirstMedia App. Tks ^em</t>
+  </si>
+  <si>
+    <t>@CliantaClianta  Hi First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan dan sdg dalam perbaikan. untuk TV nya apakah juga berkendala ? . Info jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z atau myFirstMedia App. Tks ^em</t>
+  </si>
+  <si>
+    <t>@kotakkosongeko  Selamat Pagi  First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan signal quality , kami akan bantu refresh modemnya juga ya. Detail jaringan dan tagihan bisa pantau di https://t.co/h46Z2K7k7Z  dan MYFirstMedia App ^em</t>
+  </si>
+  <si>
+    <t>@ch4lice Utk informasi terakhir problem ini bs dicek di situs https://t.co/h46Z2K7k7Z. Utk tv no signal, mhn dicek channel Kompas TV (ch 15) &amp;amp; TVN (ch 339) apakah problemnya sama ?.  Mhn pastikan posisi kabel coaxial pada input stb sudah terpasang dengan baik. Tks. (2/2) ^5HY</t>
   </si>
   <si>
     <t>@idestrichi Selamat pagi First People. Mohon maaf atas ketidaknyamanannya. Saat ini sdg terjadi prblm jaringan signal quality. Mohon kesediannya menunggu hingga 3 hari kedepan utk perbaikannya. Detailnya bisa lihat di https://t.co/h46Z2K7k7Z. Tks ^Gio</t>
@@ -358,100 +361,133 @@
     <t>@FirstMediaCares Bayar lagi gak jika diperbaiki,udah error sejak 2 hari,kenapa firstmedia sering gangguan min ? Bisa gak ada sekali aja dlam sebulan mulus,tiap blan error terus</t>
   </si>
   <si>
-    <t>2020-12-01 16:14:22</t>
-  </si>
-  <si>
-    <t>2020-12-01 16:08:34</t>
-  </si>
-  <si>
-    <t>2020-12-01 15:51:44</t>
-  </si>
-  <si>
-    <t>2020-12-01 15:51:32</t>
-  </si>
-  <si>
     <t>2020-12-01 15:45:59</t>
   </si>
   <si>
+    <t>2020-12-01 15:38:48</t>
+  </si>
+  <si>
+    <t>2020-12-01 15:33:37</t>
+  </si>
+  <si>
+    <t>2020-12-01 15:32:11</t>
+  </si>
+  <si>
     <t>2020-12-01 15:29:26</t>
   </si>
   <si>
-    <t>2020-12-01 14:36:51</t>
-  </si>
-  <si>
-    <t>2020-12-01 14:36:48</t>
-  </si>
-  <si>
-    <t>2020-12-01 13:45:56</t>
-  </si>
-  <si>
-    <t>2020-12-01 13:37:18</t>
-  </si>
-  <si>
-    <t>2020-12-01 13:12:05</t>
+    <t>2020-12-01 15:28:52</t>
+  </si>
+  <si>
+    <t>2020-12-01 15:22:32</t>
+  </si>
+  <si>
+    <t>2020-12-01 15:21:44</t>
+  </si>
+  <si>
+    <t>2020-12-01 15:20:21</t>
+  </si>
+  <si>
+    <t>2020-12-01 15:18:12</t>
+  </si>
+  <si>
+    <t>2020-12-01 15:04:05</t>
+  </si>
+  <si>
+    <t>2020-12-01 14:57:28</t>
+  </si>
+  <si>
+    <t>2020-12-01 14:54:43</t>
+  </si>
+  <si>
+    <t>2020-12-01 14:46:41</t>
+  </si>
+  <si>
+    <t>2020-12-01 14:45:25</t>
+  </si>
+  <si>
+    <t>2020-12-01 14:43:17</t>
+  </si>
+  <si>
+    <t>2020-12-01 14:41:40</t>
+  </si>
+  <si>
+    <t>2020-12-01 13:47:50</t>
+  </si>
+  <si>
+    <t>2020-12-01 13:37:38</t>
+  </si>
+  <si>
+    <t>2020-12-01 13:15:22</t>
+  </si>
+  <si>
+    <t>2020-12-01 13:13:31</t>
+  </si>
+  <si>
+    <t>2020-12-01 13:12:31</t>
   </si>
   <si>
     <t>2020-12-01 13:12:02</t>
   </si>
   <si>
+    <t>2020-12-01 13:06:37</t>
+  </si>
+  <si>
     <t>2020-12-01 13:00:24</t>
   </si>
   <si>
     <t>2020-12-01 12:59:29</t>
   </si>
   <si>
-    <t>2020-12-01 12:59:28</t>
-  </si>
-  <si>
-    <t>2020-12-01 12:55:13</t>
-  </si>
-  <si>
     <t>2020-12-01 12:52:23</t>
   </si>
   <si>
+    <t>2020-12-01 12:49:30</t>
+  </si>
+  <si>
     <t>2020-12-01 12:46:42</t>
   </si>
   <si>
+    <t>2020-12-01 12:45:58</t>
+  </si>
+  <si>
     <t>2020-12-01 12:43:23</t>
   </si>
   <si>
     <t>2020-12-01 12:41:59</t>
   </si>
   <si>
-    <t>2020-12-01 12:37:40</t>
-  </si>
-  <si>
     <t>2020-12-01 12:28:54</t>
   </si>
   <si>
+    <t>2020-12-01 12:25:57</t>
+  </si>
+  <si>
     <t>2020-12-01 12:22:36</t>
   </si>
   <si>
     <t>2020-12-01 12:15:55</t>
   </si>
   <si>
+    <t>2020-12-01 12:09:27</t>
+  </si>
+  <si>
     <t>2020-12-01 12:09:12</t>
   </si>
   <si>
     <t>2020-12-01 12:01:39</t>
   </si>
   <si>
-    <t>2020-12-01 11:58:22</t>
-  </si>
-  <si>
     <t>2020-12-01 11:56:55</t>
   </si>
   <si>
-    <t>2020-12-01 11:51:08</t>
-  </si>
-  <si>
-    <t>2020-12-01 11:47:25</t>
-  </si>
-  <si>
-    <t>2020-12-01 07:22:02</t>
-  </si>
-  <si>
-    <t>2020-12-01 07:22:01</t>
+    <t>2020-12-01 11:56:46</t>
+  </si>
+  <si>
+    <t>2020-12-01 11:54:57</t>
+  </si>
+  <si>
+    <t>2020-12-01 11:53:21</t>
   </si>
   <si>
     <t>2020-12-01 07:19:25</t>
@@ -466,9 +502,6 @@
     <t>2020-12-01 07:08:21</t>
   </si>
   <si>
-    <t>2020-12-01 07:08:14</t>
-  </si>
-  <si>
     <t>2020-12-01 07:06:02</t>
   </si>
   <si>
@@ -487,6 +520,15 @@
     <t>2020-12-01 06:39:52</t>
   </si>
   <si>
+    <t>2020-12-01 06:38:59</t>
+  </si>
+  <si>
+    <t>2020-12-01 06:37:19</t>
+  </si>
+  <si>
+    <t>2020-12-01 06:36:23</t>
+  </si>
+  <si>
     <t>2020-12-01 06:31:24</t>
   </si>
   <si>
@@ -499,13 +541,7 @@
     <t>2020-12-01 06:21:30</t>
   </si>
   <si>
-    <t>2020-12-01 06:09:10</t>
-  </si>
-  <si>
-    <t>2020-12-01 05:51:06</t>
-  </si>
-  <si>
-    <t>2020-12-01 05:39:19</t>
+    <t>2020-12-01 05:59:03</t>
   </si>
   <si>
     <t>2020-12-01 05:37:47</t>
@@ -514,58 +550,13 @@
     <t>2020-12-01 05:30:16</t>
   </si>
   <si>
-    <t>2020-12-01 05:30:06</t>
-  </si>
-  <si>
-    <t>2020-12-01 05:22:00</t>
-  </si>
-  <si>
-    <t>2020-12-01 05:09:53</t>
-  </si>
-  <si>
-    <t>2020-12-01 05:07:36</t>
-  </si>
-  <si>
-    <t>2020-12-01 05:05:42</t>
-  </si>
-  <si>
-    <t>2020-12-01 05:03:08</t>
-  </si>
-  <si>
-    <t>2020-12-01 05:02:39</t>
-  </si>
-  <si>
-    <t>2020-12-01 05:01:51</t>
-  </si>
-  <si>
-    <t>2020-12-01 04:57:31</t>
-  </si>
-  <si>
-    <t>2020-12-01 04:53:40</t>
-  </si>
-  <si>
-    <t>2020-12-01 04:46:59</t>
-  </si>
-  <si>
-    <t>2020-12-01 04:43:16</t>
-  </si>
-  <si>
-    <t>2020-12-01 04:41:56</t>
-  </si>
-  <si>
     <t>2020-12-01 04:40:03</t>
   </si>
   <si>
-    <t>2020-12-01 04:38:29</t>
-  </si>
-  <si>
-    <t>2020-12-01 04:32:29</t>
-  </si>
-  <si>
-    <t>2020-12-01 04:23:32</t>
-  </si>
-  <si>
-    <t>2020-12-01 04:22:50</t>
+    <t>2020-12-01 04:27:32</t>
+  </si>
+  <si>
+    <t>2020-12-01 04:22:20</t>
   </si>
   <si>
     <t>2020-12-01 04:17:02</t>
@@ -580,10 +571,22 @@
     <t>2020-12-01 04:11:52</t>
   </si>
   <si>
-    <t>2020-12-01 04:10:36</t>
-  </si>
-  <si>
-    <t>2020-12-01 01:55:45</t>
+    <t>2020-12-01 04:10:23</t>
+  </si>
+  <si>
+    <t>2020-12-01 04:08:12</t>
+  </si>
+  <si>
+    <t>2020-12-01 03:51:59</t>
+  </si>
+  <si>
+    <t>2020-12-01 03:47:42</t>
+  </si>
+  <si>
+    <t>2020-12-01 03:41:57</t>
+  </si>
+  <si>
+    <t>2020-12-01 01:55:31</t>
   </si>
   <si>
     <t>2020-12-01 01:42:33</t>
@@ -987,1522 +990,1522 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1.333806658405822E+18</v>
+        <v>1.333799513329332E+18</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1.333805196632211E+18</v>
+        <v>1.333797706536415E+18</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1.33380096027614E+18</v>
+        <v>1.333796400555954E+18</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1.333800911836115E+18</v>
+        <v>1.333796042349822E+18</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1.333799513329332E+18</v>
+        <v>1.333795349329109E+18</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1.333795349329109E+18</v>
+        <v>1.333795206567584E+18</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1.333782113636684E+18</v>
+        <v>1.333793614229504E+18</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1.333782103020827E+18</v>
+        <v>1.333793410205983E+18</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1.333769302076314E+18</v>
+        <v>1.333793060904337E+18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>1.333767129007493E+18</v>
+        <v>1.333792521240019E+18</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>1.333760783608529E+18</v>
+        <v>1.333788969927012E+18</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>1.333760771327549E+18</v>
+        <v>1.333787306042425E+18</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>1.333757843028148E+18</v>
+        <v>1.333786611214033E+18</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>1.333757612953801E+18</v>
+        <v>1.333784589534253E+18</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>1.333757607631225E+18</v>
+        <v>1.333784272612721E+18</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>1.333756539270701E+18</v>
+        <v>1.333783734894559E+18</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>1.333755824460612E+18</v>
+        <v>1.333783328361652E+18</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>1.333754394706264E+18</v>
+        <v>1.33376978078482E+18</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>1.333753560291426E+18</v>
+        <v>1.333767213317194E+18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>1.333753207902724E+18</v>
+        <v>1.333761608560984E+18</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>1.333752122735612E+18</v>
+        <v>1.333761144280863E+18</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>1.333749918016496E+18</v>
+        <v>1.333760894543618E+18</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>1.333748332116603E+18</v>
+        <v>1.333760771327549E+18</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>1.333746649869341E+18</v>
+        <v>1.333759408543658E+18</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>1.333744958906352E+18</v>
+        <v>1.333757843028148E+18</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>1.333743057225716E+18</v>
+        <v>1.333757612953801E+18</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1.333742234039058E+18</v>
+        <v>1.333755824460612E+18</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>1.333741869168087E+18</v>
+        <v>1.333755100804698E+18</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>1.333740413656527E+18</v>
+        <v>1.333754394706264E+18</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>1.33373947439247E+18</v>
+        <v>1.333754210605679E+18</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>1.333672689744052E+18</v>
+        <v>1.333753560291426E+18</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>1.333672686745121E+18</v>
+        <v>1.333753207902724E+18</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>1.333672031041176E+18</v>
+        <v>1.333749918016496E+18</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>1.333670950802321E+18</v>
+        <v>1.333749174630695E+18</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>1.333670242908684E+18</v>
+        <v>1.333748332116603E+18</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>1.333669247571034E+18</v>
+        <v>1.333746649869341E+18</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>1.33366921876872E+18</v>
+        <v>1.33374502101982E+18</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>1.333668662251647E+18</v>
+        <v>1.333744958906352E+18</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>1.333666765834863E+18</v>
+        <v>1.333743057225716E+18</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>1.33366429817061E+18</v>
+        <v>1.333741869168087E+18</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>1.333662829811962E+18</v>
+        <v>1.333741829309702E+18</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>1.333662289182876E+18</v>
+        <v>1.33374137240311E+18</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>1.333662079702557E+18</v>
+        <v>1.333740967824749E+18</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>1.333659947666534E+18</v>
+        <v>1.333672031041176E+18</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>1.333659934903341E+18</v>
+        <v>1.333670950802321E+18</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>1.333658389142934E+18</v>
+        <v>1.333670242908684E+18</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>1.333657455188877E+18</v>
+        <v>1.333669247571034E+18</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1.333654353995973E+18</v>
+        <v>1.333668662251647E+18</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>1.333649804295959E+18</v>
+        <v>1.333666765834863E+18</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>1.333646839929741E+18</v>
+        <v>1.33366429817061E+18</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1.33364645556371E+18</v>
+        <v>1.333662829811962E+18</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>1.333644564628795E+18</v>
+        <v>1.333662289182876E+18</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1.333644522337694E+18</v>
+        <v>1.333662079702557E+18</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1.333642484568658E+18</v>
+        <v>1.33366185640208E+18</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>1.333639434344886E+18</v>
+        <v>1.333661438854894E+18</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1.333638860857696E+18</v>
+        <v>1.333661202648429E+18</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1.333638379246735E+18</v>
+        <v>1.333659947666534E+18</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F58" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1.33363773586987E+18</v>
+        <v>1.333659934903341E+18</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1.333637613152924E+18</v>
+        <v>1.333658389142934E+18</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F60" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1.333637412191228E+18</v>
+        <v>1.333657455188877E+18</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1.333636323207352E+18</v>
+        <v>1.333651805234872E+18</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1.333635351978545E+18</v>
+        <v>1.33364645556371E+18</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F63" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1.333633672088437E+18</v>
+        <v>1.333644564628795E+18</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F64" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1.333632735441633E+18</v>
+        <v>1.333631927908061E+18</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1.333632398248931E+18</v>
+        <v>1.333628777411146E+18</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1.333631927908061E+18</v>
+        <v>1.333627466980618E+18</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F67" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1.333631532397781E+18</v>
+        <v>1.333626131774247E+18</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1.333630023031423E+18</v>
+        <v>1.333625629002985E+18</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1.333627770077778E+18</v>
+        <v>1.333625074302251E+18</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F70" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1.333627592629391E+18</v>
+        <v>1.333624834132099E+18</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>1.333626131774247E+18</v>
+        <v>1.333624462026019E+18</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1.333625629002985E+18</v>
+        <v>1.333623910353359E+18</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1.333625074302251E+18</v>
+        <v>1.333619828104434E+18</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F74" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1.333624834132099E+18</v>
+        <v>1.333618750696813E+18</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1.333624515889222E+18</v>
+        <v>1.333617303498367E+18</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F76" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>1.333590577875624E+18</v>
+        <v>1.333590519834841E+18</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F77" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2513,16 +2516,16 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E78" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2533,16 +2536,16 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E79" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F79" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2550,19 +2553,19 @@
         <v>1.333580148449243E+18</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2570,19 +2573,19 @@
         <v>1.333569960715534E+18</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E81" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F81" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
